--- a/Proj3/conf.xlsx
+++ b/Proj3/conf.xlsx
@@ -88,6 +88,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -176,7 +177,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -266,7 +267,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>8484130498</v>
